--- a/outcome/appendix/data/PHSMs/Other infectious diarrhea.xlsx
+++ b/outcome/appendix/data/PHSMs/Other infectious diarrhea.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">其它感染性腹泻病</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,6 +415,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +442,16 @@
         <v>161386.780464229</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>121473</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13827.1058258658</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +474,16 @@
         <v>153654.259693958</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>45510</v>
+      </c>
+      <c r="I3" t="n">
+        <v>75505.4330917175</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +506,16 @@
         <v>144375.59858292</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>48491</v>
+      </c>
+      <c r="I4" t="n">
+        <v>62552.7849011733</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +538,16 @@
         <v>121796.243041952</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>58544</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29920.4293602055</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +570,16 @@
         <v>132728.784380547</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>87151</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12245.9706988006</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +602,16 @@
         <v>150509.45941314</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>114085</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3092.64573139339</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +634,16 @@
         <v>167697.632548157</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>109407</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24958.8188664103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +666,16 @@
         <v>165902.698333979</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>116425</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16145.8846522321</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +698,16 @@
         <v>140691.606345055</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>97075</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10284.7926633087</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +730,16 @@
         <v>132823.01440207</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>79196</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20295.2007203229</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +762,16 @@
         <v>134777.983760157</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>83209</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18237.1718565573</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +794,16 @@
         <v>169147.560702086</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>108084</v>
+      </c>
+      <c r="I13" t="n">
+        <v>27731.7637644572</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +826,16 @@
         <v>179053.52006765</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>177114</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-32925.1612391767</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +858,16 @@
         <v>162326.505486639</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>144447</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-17822.8021831494</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +890,16 @@
         <v>151887.04609841</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>141593</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-25506.4801878632</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +922,16 @@
         <v>129307.690557442</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>110751</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-17243.8357288311</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +954,16 @@
         <v>140240.231896037</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>112075</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-7635.29439023591</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +986,16 @@
         <v>158020.90692863</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>117015</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5205.38064235686</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1018,16 @@
         <v>175209.080063647</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>123462</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15946.5537773737</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1050,16 @@
         <v>173414.145849469</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>103609</v>
+      </c>
+      <c r="I21" t="n">
+        <v>34004.6195631955</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1082,16 @@
         <v>148203.053860545</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>90862</v>
+      </c>
+      <c r="I22" t="n">
+        <v>21540.5275742722</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1114,16 @@
         <v>140334.46191756</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>74343</v>
+      </c>
+      <c r="I23" t="n">
+        <v>30190.9356312863</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1146,16 @@
         <v>142289.431398263</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>64241</v>
+      </c>
+      <c r="I24" t="n">
+        <v>42247.9067675207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1178,16 @@
         <v>176659.009372208</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>82512</v>
+      </c>
+      <c r="I25" t="n">
+        <v>58346.4986754207</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1210,16 @@
         <v>186463.467011853</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>80364</v>
+      </c>
+      <c r="I26" t="n">
+        <v>68867.5736717868</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1242,16 @@
         <v>169684.332060326</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>92535</v>
+      </c>
+      <c r="I27" t="n">
+        <v>39131.9327278141</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1274,16 @@
         <v>159238.906537747</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>122555</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-1425.7452768997</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1306,16 @@
         <v>136659.550996779</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>74986</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23563.8991821324</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1338,16 @@
         <v>147592.092335374</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>82369</v>
+      </c>
+      <c r="I30" t="n">
+        <v>27113.4405207276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1370,16 @@
         <v>165372.767367967</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>95012</v>
+      </c>
+      <c r="I31" t="n">
+        <v>32251.1155533203</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1402,16 @@
         <v>182560.940502984</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>103468</v>
+      </c>
+      <c r="I32" t="n">
+        <v>40983.2886883373</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1434,16 @@
         <v>180766.006288806</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>100107</v>
+      </c>
+      <c r="I33" t="n">
+        <v>42549.354474159</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1466,16 @@
         <v>155554.914299882</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>76490</v>
+      </c>
+      <c r="I34" t="n">
+        <v>40955.2624852357</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1498,16 @@
         <v>147686.322356897</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>61743</v>
+      </c>
+      <c r="I35" t="n">
+        <v>47833.6705422498</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1530,16 @@
         <v>149641.291937912</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>50972</v>
+      </c>
+      <c r="I36" t="n">
+        <v>60559.6416784842</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
